--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -890,7 +890,7 @@
   <dimension ref="A2:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -905,7 +905,7 @@
     <col min="8" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>71</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1161,7 +1161,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>76</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>2</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>5</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>6</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>5</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1409,7 +1409,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>74</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>2</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>5</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>6</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="12">
         <v>5</v>
@@ -1620,7 +1620,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="7">
         <v>6</v>
@@ -1637,7 +1637,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1652,7 +1652,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>75</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1824,7 +1824,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1839,7 +1839,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1854,7 +1854,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1869,7 +1869,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1886,13 +1886,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="G21:H21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1"/>

--- a/Таблицы.xlsx
+++ b/Таблицы.xlsx
@@ -226,12 +226,6 @@
     <t>кв. 90</t>
   </si>
   <si>
-    <t>ID_employeer</t>
-  </si>
-  <si>
-    <t>employeer</t>
-  </si>
-  <si>
     <t>positions</t>
   </si>
   <si>
@@ -275,6 +269,12 @@
   </si>
   <si>
     <t>70000.00</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>ID_employee</t>
   </si>
 </sst>
 </file>
@@ -549,6 +549,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,16 +582,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -906,16 +906,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -924,7 +924,7 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -971,7 +971,7 @@
         <v>28561</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>27892</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7">
         <v>3</v>
@@ -1035,7 +1035,7 @@
         <v>29405</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>33120</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>36466</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
@@ -1131,7 +1131,7 @@
         <v>36644</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
@@ -1162,15 +1162,15 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="A11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -1372,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>35</v>
@@ -1410,20 +1410,20 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="29"/>
+      <c r="D21" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="33"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="33"/>
+      <c r="G21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="20"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1432,24 +1432,24 @@
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1473,10 +1473,10 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1500,10 +1500,10 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1653,17 +1653,17 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="E32" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1716,7 +1716,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1743,7 +1743,7 @@
         <v>52</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1770,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
